--- a/plan_acceptation_Bonneton_Mathieu2023.xlsx
+++ b/plan_acceptation_Bonneton_Mathieu2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\p5openclassroom\p5_openclassroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE38C04-5819-4DB9-BB68-6C37926F9BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88723725-8164-4C11-B3A5-58B0FCEC4347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,80 +37,80 @@
     <t>Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
   </si>
   <si>
-    <t>Ouvrir sur la page d'accueil du site web dans un navigateur</t>
-  </si>
-  <si>
-    <t>Affichage de l'ensemble des produits</t>
-  </si>
-  <si>
     <t>OK / Description erreur</t>
   </si>
   <si>
-    <t>Une page produit affichant de manière dynamique les détails d’un produit</t>
-  </si>
-  <si>
-    <t>Ouvrir sur la page d’un produit du site web dans un navigateur</t>
-  </si>
-  <si>
-    <t>Affichage des détails d’un produit</t>
-  </si>
-  <si>
     <t>ok / Description erreur</t>
   </si>
   <si>
-    <t>Ajout d’un produit au panier</t>
-  </si>
-  <si>
-    <t>Une page panier montrant (de manière dynamique) tous les articles présents dans le panier</t>
-  </si>
-  <si>
-    <t>Modifier la quantité d’un article du panier</t>
-  </si>
-  <si>
-    <t>Supprimer la quantité d’un article du panier</t>
-  </si>
-  <si>
-    <t>Passer commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisir une quantité, une couleur et cliquez sur le bouton " ajouter au panier" </t>
-  </si>
-  <si>
-    <t>Ouvrir sur la page panier du site web dans un navigateur</t>
-  </si>
-  <si>
-    <t>Modifier la quantité d’un article dans le panier</t>
-  </si>
-  <si>
-    <t>Supprimer un article du panier</t>
-  </si>
-  <si>
-    <t>Remplir le formulaire depuis la page panier et saisir une adresse email invalide avant de cliquer sur
-"commander"</t>
-  </si>
-  <si>
-    <t>Un message d’erreur s’affiche sous le champ email</t>
-  </si>
-  <si>
-    <t>Le produit disparait de la page et le total du nombre d’article et du prix est mis à jour</t>
-  </si>
-  <si>
-    <t>La quantité est mise à jour ainsi que le total du nombre d’article et du prix est mis à jour</t>
-  </si>
-  <si>
-    <t>Affichage de l’ensemble des produits</t>
-  </si>
-  <si>
-    <t>Rediriger vers la page panier</t>
-  </si>
-  <si>
-    <t>Resultat global</t>
-  </si>
-  <si>
     <t xml:space="preserve">demande en rapport au mail </t>
   </si>
   <si>
-    <t>une mise en service grace à javascript, une recupération de donnée et une mise en ligne avec un formulaire et un numéro de commande</t>
+    <t>une mise en service grace à javascript, une recupération de donnée et une mise en ligne avec un formulaire et un numéro de commande.</t>
+  </si>
+  <si>
+    <t>affichage des détails d’un produit.</t>
+  </si>
+  <si>
+    <t>affichage de l'ensemble des produits.</t>
+  </si>
+  <si>
+    <t>rediriger vers la page panier.</t>
+  </si>
+  <si>
+    <t>affichage de l’ensemble des produits.</t>
+  </si>
+  <si>
+    <t>la quantité est mise à jour ainsi que le total du nombre d’article et du prix est mis à jour.</t>
+  </si>
+  <si>
+    <t>le produit disparait de la page et le total du nombre d’article et du prix est mis à jour.</t>
+  </si>
+  <si>
+    <t>un message d’erreur s’affiche sous les champs de formulaire.</t>
+  </si>
+  <si>
+    <t>remplir le formulaire depuis la page panier et saisir une adresse email invalide avant de cliquer sur:
+"commander".</t>
+  </si>
+  <si>
+    <t>supprimer un article du panier.</t>
+  </si>
+  <si>
+    <t>modifier la quantité d’un article dans le panier.</t>
+  </si>
+  <si>
+    <t>ouvrir sur la page panier du site web dans un navigateur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choisir une quantité, une couleur et cliquez sur le bouton: " ajouter au panier". </t>
+  </si>
+  <si>
+    <t>ouvrir la page d’un produit du site web dans un navigateur.</t>
+  </si>
+  <si>
+    <t>ouvrir sur la page d'accueil du site web dans un navigateur.</t>
+  </si>
+  <si>
+    <t>resultat global</t>
+  </si>
+  <si>
+    <t>passer commande</t>
+  </si>
+  <si>
+    <t>supprimer la quantité d’un article du panier</t>
+  </si>
+  <si>
+    <t>modifier la quantité d’un article du panier</t>
+  </si>
+  <si>
+    <t>une page panier montrant (de manière dynamique) tous les articles présents dans le panier</t>
+  </si>
+  <si>
+    <t>ajout d’un produit au panier</t>
+  </si>
+  <si>
+    <t>une page produit affichant de manière dynamique les détails d’un produit</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -736,13 +736,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -750,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -767,16 +767,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -784,16 +784,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -801,16 +801,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -818,16 +818,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
@@ -835,16 +835,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -852,103 +852,103 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="21.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="22.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
